--- a/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,15%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>78,89; 88,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>77,43; 87,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>81,68; 89,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>84,51; 92,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>82,08; 88,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>82,24; 88,91</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,6%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>80,47; 86,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>75,07; 84,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>85,08; 90,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>78,11; 84,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>83,73; 88,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>77,85; 83,15</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,09%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>93,27; 97,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>76,76; 85,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>96,32; 99,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>85,11; 90,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>95,66; 98,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>82,09; 87,36</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>73,95; 82,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>76,89; 88,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>79,74; 87,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>82,37; 89,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>78,5; 84,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>81,8; 88,22</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,79%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>75,21; 85,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>70,48; 81,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>81,12; 89,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>83,66; 90,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>80,18; 87,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>79,28; 85,95</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,23%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>82,19; 90,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>80,84; 89,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>87,69; 94,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>89,59; 95,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>85,94; 91,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>86,51; 91,42</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,6%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>82,48; 88,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>76,14; 83,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>78,86; 84,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>80,57; 90,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>81,51; 85,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>79,77; 86,62</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,39%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>79,04; 84,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>36,89; 52,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>82,68; 87,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>43,22; 49,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>81,7; 85,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>41,57; 51,17</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,16; 85,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,41; 73,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,49; 87,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>75,49; 79,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,75; 86,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>73,22; 76,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,89; 88,21</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,43; 87,98</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,68; 89,97</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,51; 92,05</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,08; 88,22</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,24; 88,91</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,47; 86,89</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,07; 84,35</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,08; 90,93</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,11; 84,46</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,73; 88,1</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,85; 83,15</t>
+          <t>0; 0,17</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,27; 97,64</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,76; 85,46</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,32; 99,38</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,11; 90,98</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,66; 98,26</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,09; 87,36</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 82,86</t>
+          <t>0; 0,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,89; 88,18</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,74; 87,53</t>
+          <t>0; 0,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,37; 89,8</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,5; 84,22</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,8; 88,22</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,21; 85,82</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,48; 81,42</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,12; 89,95</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,66; 90,79</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,18; 87,24</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,28; 85,95</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,19; 90,32</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,84; 89,12</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,69; 94,08</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,59; 95,05</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>85,94; 91,47</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>86,51; 91,42</t>
+          <t>0; 0,23</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,48; 88,14</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,14; 83,98</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,86; 84,65</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,57; 90,5</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,51; 85,52</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,77; 86,62</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,04; 84,63</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,89; 52,97</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,68; 87,37</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43,22; 49,97</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>81,7; 85,49</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,57; 51,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,16; 85,68</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,41; 73,31</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,49; 87,8</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>75,49; 79,45</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>84,75; 86,46</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>73,22; 76,12</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +672,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +752,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -991,7 +992,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1071,7 +1072,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume menos de una bebida azucarada por día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1993</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2598</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1377</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1805</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1681</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1248</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1524</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2036</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1699</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 813</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 964</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1071</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2169</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1701</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2107</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2338</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2099</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1297</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2037</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1312</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>